--- a/Charts/Gantt Chart/Initial/Gantt Chart.xlsx
+++ b/Charts/Gantt Chart/Initial/Gantt Chart.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8326792F-5296-40AC-BFE5-C33EC5790BE7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>May</t>
   </si>
@@ -36,28 +37,46 @@
     <t>Final Cantt Chart</t>
   </si>
   <si>
-    <t>Diary</t>
-  </si>
-  <si>
-    <t>Algorithms</t>
-  </si>
-  <si>
-    <t>Flow Chart</t>
-  </si>
-  <si>
-    <t>Screen Layout Diagrams</t>
-  </si>
-  <si>
-    <t>Structure Diagrams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow Diagrams </t>
+    <t>Create Structure Diagrams</t>
+  </si>
+  <si>
+    <t>Plan User Interface</t>
+  </si>
+  <si>
+    <t>CreateStory Board Diagrams</t>
+  </si>
+  <si>
+    <t>Plan Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Algorithms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deskcheck Algorithms </t>
+  </si>
+  <si>
+    <t>Create Screen Design Diagrams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Data Flow Diagrams </t>
+  </si>
+  <si>
+    <t>Project Journal</t>
+  </si>
+  <si>
+    <t>Report Outlining Define/Understand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Solution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create User Manual </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,16 +387,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -496,35 +515,66 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>